--- a/sfe_82/GVFs/width_5m_30m_0p50m_max_width_diff.xlsx
+++ b/sfe_82/GVFs/width_5m_30m_0p50m_max_width_diff.xlsx
@@ -491,10 +491,10 @@
         <v>999.2522</v>
       </c>
       <c r="D3" t="n">
-        <v>999.9522000000001</v>
+        <v>999.9822</v>
       </c>
       <c r="E3" t="n">
-        <v>6.489261570838602</v>
+        <v>7.465887915782337</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>998.5832</v>
       </c>
       <c r="D4" t="n">
-        <v>999.8332</v>
+        <v>998.6732000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>10.11204108767556</v>
+        <v>1.869059046649044</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>998.4661</v>
       </c>
       <c r="D5" t="n">
-        <v>999.3661</v>
+        <v>999.3860999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>7.475340793854123</v>
+        <v>7.608626172365533</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>999.5035</v>
       </c>
       <c r="D6" t="n">
-        <v>999.6535</v>
+        <v>999.6235</v>
       </c>
       <c r="E6" t="n">
-        <v>9.375773785277564</v>
+        <v>4.346979898665404</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>999.6827</v>
       </c>
       <c r="D7" t="n">
-        <v>999.9826999999999</v>
+        <v>999.9327</v>
       </c>
       <c r="E7" t="n">
-        <v>9.788754015247701</v>
+        <v>4.541647757058347</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>999.3757000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>1000.0257</v>
+        <v>1000.0557</v>
       </c>
       <c r="E8" t="n">
-        <v>7.764879295305094</v>
+        <v>7.9802574042306</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>999.2295</v>
       </c>
       <c r="D9" t="n">
-        <v>1000.6295</v>
+        <v>1000.6695</v>
       </c>
       <c r="E9" t="n">
-        <v>10.95920472380142</v>
+        <v>11.80253364671664</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>999.3389</v>
       </c>
       <c r="D10" t="n">
-        <v>1001.1389</v>
+        <v>999.3588999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>15.52516377192552</v>
+        <v>0.3004482945450864</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>999.4198</v>
       </c>
       <c r="D11" t="n">
-        <v>1000.9698</v>
+        <v>999.4398</v>
       </c>
       <c r="E11" t="n">
-        <v>12.7413595921984</v>
+        <v>0.3035088918174438</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>999.7449</v>
       </c>
       <c r="D12" t="n">
-        <v>999.8949</v>
+        <v>999.7749</v>
       </c>
       <c r="E12" t="n">
-        <v>6.893331114068852</v>
+        <v>2.239299130214512</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>999.8469</v>
       </c>
       <c r="D13" t="n">
-        <v>999.9469</v>
+        <v>999.9369</v>
       </c>
       <c r="E13" t="n">
-        <v>6.640411089393028</v>
+        <v>2.497206439338187</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>999.7826</v>
       </c>
       <c r="D14" t="n">
-        <v>1000.1826</v>
+        <v>999.9526</v>
       </c>
       <c r="E14" t="n">
-        <v>12.17482605069447</v>
+        <v>4.438417332439535</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -731,10 +731,10 @@
         <v>999.5615</v>
       </c>
       <c r="D15" t="n">
-        <v>999.8615</v>
+        <v>999.8515</v>
       </c>
       <c r="E15" t="n">
-        <v>10.87326130247139</v>
+        <v>5.037609327286267</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>999.4684999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>999.9185</v>
+        <v>999.9085</v>
       </c>
       <c r="E16" t="n">
-        <v>8.438430729213291</v>
+        <v>5.526756111203428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>999.5174</v>
       </c>
       <c r="D17" t="n">
-        <v>999.9173999999999</v>
+        <v>999.8774</v>
       </c>
       <c r="E17" t="n">
-        <v>7.632188907587141</v>
+        <v>5.085264346037993</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>999.7195</v>
       </c>
       <c r="D18" t="n">
-        <v>999.8695</v>
+        <v>999.8395</v>
       </c>
       <c r="E18" t="n">
-        <v>6.252376334548661</v>
+        <v>4.819272724716543</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>999.682</v>
       </c>
       <c r="D20" t="n">
-        <v>999.732</v>
+        <v>999.692</v>
       </c>
       <c r="E20" t="n">
-        <v>6.432077704849691</v>
+        <v>1.375252328220048</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>999.6355</v>
       </c>
       <c r="D21" t="n">
-        <v>1000.4355</v>
+        <v>1000.4555</v>
       </c>
       <c r="E21" t="n">
-        <v>11.12653817805815</v>
+        <v>11.21710740506176</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>999.4579</v>
       </c>
       <c r="D22" t="n">
-        <v>1000.3579</v>
+        <v>1000.3879</v>
       </c>
       <c r="E22" t="n">
-        <v>10.17160427210339</v>
+        <v>10.36715489388414</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>999.0406</v>
       </c>
       <c r="D24" t="n">
-        <v>999.7906</v>
+        <v>999.8306</v>
       </c>
       <c r="E24" t="n">
-        <v>6.054857501738658</v>
+        <v>6.787181335901398</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>999.0843</v>
       </c>
       <c r="D25" t="n">
-        <v>1000.3343</v>
+        <v>1000.3443</v>
       </c>
       <c r="E25" t="n">
-        <v>14.72269783096868</v>
+        <v>14.79499186861195</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -951,10 +951,10 @@
         <v>999.4562</v>
       </c>
       <c r="D26" t="n">
-        <v>999.7561999999999</v>
+        <v>999.7862</v>
       </c>
       <c r="E26" t="n">
-        <v>7.159457060822366</v>
+        <v>7.540098971562683</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>999.6143</v>
       </c>
       <c r="D27" t="n">
-        <v>999.7642999999999</v>
+        <v>999.7243</v>
       </c>
       <c r="E27" t="n">
-        <v>9.013242376251352</v>
+        <v>3.757865481094786</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>999.4885</v>
       </c>
       <c r="D28" t="n">
-        <v>999.8885</v>
+        <v>999.8785</v>
       </c>
       <c r="E28" t="n">
-        <v>7.950561355656127</v>
+        <v>6.219597116233253</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>999.1863</v>
       </c>
       <c r="D29" t="n">
-        <v>999.8362999999999</v>
+        <v>999.8163</v>
       </c>
       <c r="E29" t="n">
-        <v>11.69427871513459</v>
+        <v>6.100281008412365</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>999.1507</v>
       </c>
       <c r="D30" t="n">
-        <v>999.9507</v>
+        <v>999.9807000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>7.087298073558138</v>
+        <v>7.394503026375713</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>999.4183</v>
       </c>
       <c r="D31" t="n">
-        <v>1000.0683</v>
+        <v>1000.0983</v>
       </c>
       <c r="E31" t="n">
-        <v>9.470115009983653</v>
+        <v>10.23381252365147</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>999.4397</v>
       </c>
       <c r="D32" t="n">
-        <v>1000.0397</v>
+        <v>1000.0497</v>
       </c>
       <c r="E32" t="n">
-        <v>7.320533104313858</v>
+        <v>7.402298558165885</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>999.2692</v>
       </c>
       <c r="D33" t="n">
-        <v>1000.0692</v>
+        <v>1000.0792</v>
       </c>
       <c r="E33" t="n">
-        <v>6.500730535721186</v>
+        <v>6.589279542904437</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>999.2528</v>
       </c>
       <c r="D34" t="n">
-        <v>1000.0528</v>
+        <v>1000.0828</v>
       </c>
       <c r="E34" t="n">
-        <v>6.332699586838825</v>
+        <v>6.672835573508262</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>999.2046</v>
       </c>
       <c r="D35" t="n">
-        <v>1000.1046</v>
+        <v>1000.1546</v>
       </c>
       <c r="E35" t="n">
-        <v>9.211759107316066</v>
+        <v>12.58553332599027</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>999.0828</v>
       </c>
       <c r="D36" t="n">
-        <v>1000.0828</v>
+        <v>1000.0928</v>
       </c>
       <c r="E36" t="n">
-        <v>9.102315481567505</v>
+        <v>9.358092801160193</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>998.9739</v>
       </c>
       <c r="D37" t="n">
-        <v>1000.2739</v>
+        <v>1000.1939</v>
       </c>
       <c r="E37" t="n">
-        <v>12.63920892489627</v>
+        <v>10.71416781477254</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>999.1713</v>
       </c>
       <c r="D38" t="n">
-        <v>1000.5213</v>
+        <v>1000.5413</v>
       </c>
       <c r="E38" t="n">
-        <v>12.21773071817787</v>
+        <v>12.80213610059654</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>999.3429</v>
       </c>
       <c r="D39" t="n">
-        <v>1000.3429</v>
+        <v>1000.3829</v>
       </c>
       <c r="E39" t="n">
-        <v>11.07543112648368</v>
+        <v>11.8052117825433</v>
       </c>
       <c r="F39" t="inlineStr"/>
     </row>
